--- a/report/Survey results.xlsx
+++ b/report/Survey results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="13095"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="28752" windowHeight="13092"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Programmeringsvana</t>
   </si>
@@ -46,7 +45,13 @@
     <t>Hög</t>
   </si>
   <si>
-    <t>Totalt: 22</t>
+    <t>Ålder</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Totalt: 20</t>
   </si>
 </sst>
 </file>
@@ -393,18 +398,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G23"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +431,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -449,8 +457,11 @@
       <c r="G2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -472,8 +483,11 @@
       <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -495,8 +509,11 @@
       <c r="G4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -518,8 +535,11 @@
       <c r="G5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -541,8 +561,11 @@
       <c r="G6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -564,8 +587,11 @@
       <c r="G7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -587,8 +613,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -610,8 +639,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -633,8 +665,11 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -656,8 +691,11 @@
       <c r="G11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -679,8 +717,11 @@
       <c r="G12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -702,8 +743,11 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -725,8 +769,11 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -748,8 +795,11 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -771,8 +821,11 @@
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -794,8 +847,11 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -817,8 +873,11 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -840,8 +899,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -863,8 +925,11 @@
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -886,56 +951,65 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
+      <c r="H21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <f>SUM(B2:B21)</f>
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <f>SUM(C2:C21)</f>
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <f>SUM(D2:D21)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24">
-        <f>SUM(B2:B23)</f>
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <f>SUM(C2:C23)</f>
-        <v>15</v>
-      </c>
-      <c r="D24">
-        <f>SUM(D2:D23)</f>
-        <v>21</v>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +1032,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -970,7 +1044,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report/Survey results.xlsx
+++ b/report/Survey results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Programmeringsvana</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Ålder</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Totalt: 20</t>
@@ -398,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -409,7 +406,7 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -461,7 +458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -487,7 +484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -513,7 +510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -539,7 +536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -565,7 +562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -591,7 +588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -617,7 +614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -643,7 +640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -668,8 +665,14 @@
       <c r="H10">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -694,8 +697,14 @@
       <c r="H11">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -721,7 +730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -747,7 +756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -773,7 +782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -795,11 +804,11 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -957,7 +966,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
